--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itga10</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H2">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I2">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J2">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.76015164397178</v>
+        <v>0.839947</v>
       </c>
       <c r="N2">
-        <v>0.76015164397178</v>
+        <v>1.679894</v>
       </c>
       <c r="O2">
-        <v>0.2204373294514705</v>
+        <v>0.2208542321802992</v>
       </c>
       <c r="P2">
-        <v>0.2204373294514705</v>
+        <v>0.1826921738434421</v>
       </c>
       <c r="Q2">
-        <v>0.02704964707217824</v>
+        <v>0.043657925219</v>
       </c>
       <c r="R2">
-        <v>0.02704964707217824</v>
+        <v>0.174631700876</v>
       </c>
       <c r="S2">
-        <v>0.02097596405942593</v>
+        <v>0.01925216971287867</v>
       </c>
       <c r="T2">
-        <v>0.02097596405942593</v>
+        <v>0.01144528341121856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H3">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I3">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J3">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.438361379183894</v>
+        <v>0.5345263333333333</v>
       </c>
       <c r="N3">
-        <v>0.438361379183894</v>
+        <v>1.603579</v>
       </c>
       <c r="O3">
-        <v>0.1271209666232707</v>
+        <v>0.1405474427892284</v>
       </c>
       <c r="P3">
-        <v>0.1271209666232707</v>
+        <v>0.1743927494471038</v>
       </c>
       <c r="Q3">
-        <v>0.01559888831528704</v>
+        <v>0.02778307522766666</v>
       </c>
       <c r="R3">
-        <v>0.01559888831528704</v>
+        <v>0.166698451366</v>
       </c>
       <c r="S3">
-        <v>0.01209633973394801</v>
+        <v>0.01225171550744998</v>
       </c>
       <c r="T3">
-        <v>0.01209633973394801</v>
+        <v>0.01092534179375511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H4">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I4">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J4">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.196378425333234</v>
+        <v>0.2109403333333333</v>
       </c>
       <c r="N4">
-        <v>0.196378425333234</v>
+        <v>0.632821</v>
       </c>
       <c r="O4">
-        <v>0.05694802607563677</v>
+        <v>0.05546429162100669</v>
       </c>
       <c r="P4">
-        <v>0.05694802607563677</v>
+        <v>0.06882067805693744</v>
       </c>
       <c r="Q4">
-        <v>0.006988036058304292</v>
+        <v>0.01096404570566666</v>
       </c>
       <c r="R4">
-        <v>0.006988036058304292</v>
+        <v>0.06578427423399999</v>
       </c>
       <c r="S4">
-        <v>0.005418954000169861</v>
+        <v>0.004834899221765815</v>
       </c>
       <c r="T4">
-        <v>0.005418954000169861</v>
+        <v>0.004311471850944609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H5">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I5">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J5">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.260592588423979</v>
+        <v>0.351712</v>
       </c>
       <c r="N5">
-        <v>0.260592588423979</v>
+        <v>1.055136</v>
       </c>
       <c r="O5">
-        <v>0.07556957183816952</v>
+        <v>0.0924785536570729</v>
       </c>
       <c r="P5">
-        <v>0.07556957183816952</v>
+        <v>0.1147483648018709</v>
       </c>
       <c r="Q5">
-        <v>0.009273067554867665</v>
+        <v>0.018280934624</v>
       </c>
       <c r="R5">
-        <v>0.009273067554867665</v>
+        <v>0.109685607744</v>
       </c>
       <c r="S5">
-        <v>0.007190908303997672</v>
+        <v>0.008061483777019245</v>
       </c>
       <c r="T5">
-        <v>0.007190908303997672</v>
+        <v>0.007188745574053786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H6">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I6">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J6">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.420680100465321</v>
+        <v>0.49169</v>
       </c>
       <c r="N6">
-        <v>0.420680100465321</v>
+        <v>1.47507</v>
       </c>
       <c r="O6">
-        <v>0.1219935504124152</v>
+        <v>0.1292841303329035</v>
       </c>
       <c r="P6">
-        <v>0.1219935504124152</v>
+        <v>0.1604171125507003</v>
       </c>
       <c r="Q6">
-        <v>0.01496970813404945</v>
+        <v>0.02555657113</v>
       </c>
       <c r="R6">
-        <v>0.01496970813404945</v>
+        <v>0.15333942678</v>
       </c>
       <c r="S6">
-        <v>0.01160843462992478</v>
+        <v>0.01126987694000373</v>
       </c>
       <c r="T6">
-        <v>0.01160843462992478</v>
+        <v>0.01004979730946486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0355845406461851</v>
+        <v>0.051977</v>
       </c>
       <c r="H7">
-        <v>0.0355845406461851</v>
+        <v>0.103954</v>
       </c>
       <c r="I7">
-        <v>0.09515613399791167</v>
+        <v>0.08717138685919198</v>
       </c>
       <c r="J7">
-        <v>0.09515613399791167</v>
+        <v>0.06264791299175514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.37221570764767</v>
+        <v>1.374358</v>
       </c>
       <c r="N7">
-        <v>1.37221570764767</v>
+        <v>2.748716</v>
       </c>
       <c r="O7">
-        <v>0.3979305555990374</v>
+        <v>0.3613713494194892</v>
       </c>
       <c r="P7">
-        <v>0.3979305555990374</v>
+        <v>0.2989289212999456</v>
       </c>
       <c r="Q7">
-        <v>0.04882966562412216</v>
+        <v>0.071435005766</v>
       </c>
       <c r="R7">
-        <v>0.04882966562412216</v>
+        <v>0.285740023064</v>
       </c>
       <c r="S7">
-        <v>0.03786553327044544</v>
+        <v>0.03150124170007453</v>
       </c>
       <c r="T7">
-        <v>0.03786553327044544</v>
+        <v>0.01872727305231821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H8">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I8">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J8">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.76015164397178</v>
+        <v>0.839947</v>
       </c>
       <c r="N8">
-        <v>0.76015164397178</v>
+        <v>1.679894</v>
       </c>
       <c r="O8">
-        <v>0.2204373294514705</v>
+        <v>0.2208542321802992</v>
       </c>
       <c r="P8">
-        <v>0.2204373294514705</v>
+        <v>0.1826921738434421</v>
       </c>
       <c r="Q8">
-        <v>0.1639985010253618</v>
+        <v>0.2648879257786667</v>
       </c>
       <c r="R8">
-        <v>0.1639985010253618</v>
+        <v>1.589327554672</v>
       </c>
       <c r="S8">
-        <v>0.1271745488630029</v>
+        <v>0.1168096577288542</v>
       </c>
       <c r="T8">
-        <v>0.1271745488630029</v>
+        <v>0.1041638156487769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H9">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I9">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J9">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.438361379183894</v>
+        <v>0.5345263333333333</v>
       </c>
       <c r="N9">
-        <v>0.438361379183894</v>
+        <v>1.603579</v>
       </c>
       <c r="O9">
-        <v>0.1271209666232707</v>
+        <v>0.1405474427892284</v>
       </c>
       <c r="P9">
-        <v>0.1271209666232707</v>
+        <v>0.1743927494471038</v>
       </c>
       <c r="Q9">
-        <v>0.09457403619880576</v>
+        <v>0.1685696498835556</v>
       </c>
       <c r="R9">
-        <v>0.09457403619880576</v>
+        <v>1.517126848952</v>
       </c>
       <c r="S9">
-        <v>0.07333853853869332</v>
+        <v>0.07433544978876772</v>
       </c>
       <c r="T9">
-        <v>0.07333853853869332</v>
+        <v>0.09943181375387372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H10">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I10">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J10">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.196378425333234</v>
+        <v>0.2109403333333333</v>
       </c>
       <c r="N10">
-        <v>0.196378425333234</v>
+        <v>0.632821</v>
       </c>
       <c r="O10">
-        <v>0.05694802607563677</v>
+        <v>0.05546429162100669</v>
       </c>
       <c r="P10">
-        <v>0.05694802607563677</v>
+        <v>0.06882067805693744</v>
       </c>
       <c r="Q10">
-        <v>0.04236755605775801</v>
+        <v>0.06652270602755556</v>
       </c>
       <c r="R10">
-        <v>0.04236755605775801</v>
+        <v>0.5987043542479999</v>
       </c>
       <c r="S10">
-        <v>0.03285441509761187</v>
+        <v>0.02933502725514475</v>
       </c>
       <c r="T10">
-        <v>0.03285441509761187</v>
+        <v>0.03923881505778021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H11">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I11">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J11">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.260592588423979</v>
+        <v>0.351712</v>
       </c>
       <c r="N11">
-        <v>0.260592588423979</v>
+        <v>1.055136</v>
       </c>
       <c r="O11">
-        <v>0.07556957183816952</v>
+        <v>0.0924785536570729</v>
       </c>
       <c r="P11">
-        <v>0.07556957183816952</v>
+        <v>0.1147483648018709</v>
       </c>
       <c r="Q11">
-        <v>0.05622140558238161</v>
+        <v>0.1109168342186667</v>
       </c>
       <c r="R11">
-        <v>0.05622140558238161</v>
+        <v>0.9982515079680001</v>
       </c>
       <c r="S11">
-        <v>0.04359754416461149</v>
+        <v>0.04891184603210769</v>
       </c>
       <c r="T11">
-        <v>0.04359754416461149</v>
+        <v>0.06542495644867345</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H12">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I12">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J12">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.420680100465321</v>
+        <v>0.49169</v>
       </c>
       <c r="N12">
-        <v>0.420680100465321</v>
+        <v>1.47507</v>
       </c>
       <c r="O12">
-        <v>0.1219935504124152</v>
+        <v>0.1292841303329035</v>
       </c>
       <c r="P12">
-        <v>0.1219935504124152</v>
+        <v>0.1604171125507003</v>
       </c>
       <c r="Q12">
-        <v>0.09075939838403146</v>
+        <v>0.1550606695733333</v>
       </c>
       <c r="R12">
-        <v>0.09075939838403146</v>
+        <v>1.39554602616</v>
       </c>
       <c r="S12">
-        <v>0.07038043318933618</v>
+        <v>0.06837829125968699</v>
       </c>
       <c r="T12">
-        <v>0.07038043318933618</v>
+        <v>0.09146346111661884</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.21574445352571</v>
+        <v>0.3153626666666667</v>
       </c>
       <c r="H13">
-        <v>0.21574445352571</v>
+        <v>0.946088</v>
       </c>
       <c r="I13">
-        <v>0.5769192957447823</v>
+        <v>0.5288993404187701</v>
       </c>
       <c r="J13">
-        <v>0.5769192957447823</v>
+        <v>0.5701602507507517</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.37221570764767</v>
+        <v>1.374358</v>
       </c>
       <c r="N13">
-        <v>1.37221570764767</v>
+        <v>2.748716</v>
       </c>
       <c r="O13">
-        <v>0.3979305555990374</v>
+        <v>0.3613713494194892</v>
       </c>
       <c r="P13">
-        <v>0.3979305555990374</v>
+        <v>0.2989289212999456</v>
       </c>
       <c r="Q13">
-        <v>0.296047927965842</v>
+        <v>0.4334212038346667</v>
       </c>
       <c r="R13">
-        <v>0.296047927965842</v>
+        <v>2.600527223008</v>
       </c>
       <c r="S13">
-        <v>0.2295738158915266</v>
+        <v>0.1911290683542087</v>
       </c>
       <c r="T13">
-        <v>0.2295738158915266</v>
+        <v>0.1704373887250287</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H14">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I14">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J14">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.76015164397178</v>
+        <v>0.839947</v>
       </c>
       <c r="N14">
-        <v>0.76015164397178</v>
+        <v>1.679894</v>
       </c>
       <c r="O14">
-        <v>0.2204373294514705</v>
+        <v>0.2208542321802992</v>
       </c>
       <c r="P14">
-        <v>0.2204373294514705</v>
+        <v>0.1826921738434421</v>
       </c>
       <c r="Q14">
-        <v>0.04689669186303964</v>
+        <v>0.01192752738233333</v>
       </c>
       <c r="R14">
-        <v>0.04689669186303964</v>
+        <v>0.07156516429400001</v>
       </c>
       <c r="S14">
-        <v>0.03636658624048646</v>
+        <v>0.005259773117201483</v>
       </c>
       <c r="T14">
-        <v>0.03636658624048646</v>
+        <v>0.004690348794671895</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H15">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I15">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J15">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.438361379183894</v>
+        <v>0.5345263333333333</v>
       </c>
       <c r="N15">
-        <v>0.438361379183894</v>
+        <v>1.603579</v>
       </c>
       <c r="O15">
-        <v>0.1271209666232707</v>
+        <v>0.1405474427892284</v>
       </c>
       <c r="P15">
-        <v>0.1271209666232707</v>
+        <v>0.1743927494471038</v>
       </c>
       <c r="Q15">
-        <v>0.02704420714902426</v>
+        <v>0.007590452108777778</v>
       </c>
       <c r="R15">
-        <v>0.02704420714902426</v>
+        <v>0.068314068979</v>
       </c>
       <c r="S15">
-        <v>0.02097174560761917</v>
+        <v>0.003347219810896337</v>
       </c>
       <c r="T15">
-        <v>0.02097174560761917</v>
+        <v>0.004477273464760968</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H16">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I16">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J16">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.196378425333234</v>
+        <v>0.2109403333333333</v>
       </c>
       <c r="N16">
-        <v>0.196378425333234</v>
+        <v>0.632821</v>
       </c>
       <c r="O16">
-        <v>0.05694802607563677</v>
+        <v>0.05546429162100669</v>
       </c>
       <c r="P16">
-        <v>0.05694802607563677</v>
+        <v>0.06882067805693744</v>
       </c>
       <c r="Q16">
-        <v>0.01211534379282814</v>
+        <v>0.002995423046777777</v>
       </c>
       <c r="R16">
-        <v>0.01211534379282814</v>
+        <v>0.026958807421</v>
       </c>
       <c r="S16">
-        <v>0.009394984536686879</v>
+        <v>0.001320914646519586</v>
       </c>
       <c r="T16">
-        <v>0.009394984536686879</v>
+        <v>0.001766868156320019</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H17">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I17">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J17">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.260592588423979</v>
+        <v>0.351712</v>
       </c>
       <c r="N17">
-        <v>0.260592588423979</v>
+        <v>1.055136</v>
       </c>
       <c r="O17">
-        <v>0.07556957183816952</v>
+        <v>0.0924785536570729</v>
       </c>
       <c r="P17">
-        <v>0.07556957183816952</v>
+        <v>0.1147483648018709</v>
       </c>
       <c r="Q17">
-        <v>0.0160769636138088</v>
+        <v>0.004994427637333334</v>
       </c>
       <c r="R17">
-        <v>0.0160769636138088</v>
+        <v>0.044949848736</v>
       </c>
       <c r="S17">
-        <v>0.01246706879568893</v>
+        <v>0.002202431013620107</v>
       </c>
       <c r="T17">
-        <v>0.01246706879568893</v>
+        <v>0.00294599294111112</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H18">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I18">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J18">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.420680100465321</v>
+        <v>0.49169</v>
       </c>
       <c r="N18">
-        <v>0.420680100465321</v>
+        <v>1.47507</v>
       </c>
       <c r="O18">
-        <v>0.1219935504124152</v>
+        <v>0.1292841303329035</v>
       </c>
       <c r="P18">
-        <v>0.1219935504124152</v>
+        <v>0.1604171125507003</v>
       </c>
       <c r="Q18">
-        <v>0.02595338075091648</v>
+        <v>0.006982161896666666</v>
       </c>
       <c r="R18">
-        <v>0.02595338075091648</v>
+        <v>0.06283945706999999</v>
       </c>
       <c r="S18">
-        <v>0.02012585156468668</v>
+        <v>0.003078977416428414</v>
       </c>
       <c r="T18">
-        <v>0.02012585156468668</v>
+        <v>0.004118469853786412</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.0616938636322684</v>
+        <v>0.01420033333333333</v>
       </c>
       <c r="H19">
-        <v>0.0616938636322684</v>
+        <v>0.042601</v>
       </c>
       <c r="I19">
-        <v>0.1649747178981888</v>
+        <v>0.02381558671199722</v>
       </c>
       <c r="J19">
-        <v>0.1649747178981888</v>
+        <v>0.0256735069488597</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.37221570764767</v>
+        <v>1.374358</v>
       </c>
       <c r="N19">
-        <v>1.37221570764767</v>
+        <v>2.748716</v>
       </c>
       <c r="O19">
-        <v>0.3979305555990374</v>
+        <v>0.3613713494194892</v>
       </c>
       <c r="P19">
-        <v>0.3979305555990374</v>
+        <v>0.2989289212999456</v>
       </c>
       <c r="Q19">
-        <v>0.08465728874167203</v>
+        <v>0.01951634171933333</v>
       </c>
       <c r="R19">
-        <v>0.08465728874167203</v>
+        <v>0.117098050316</v>
       </c>
       <c r="S19">
-        <v>0.06564848115302074</v>
+        <v>0.00860627070733129</v>
       </c>
       <c r="T19">
-        <v>0.06564848115302074</v>
+        <v>0.007674553738209287</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.0609366459201686</v>
+        <v>0.073389</v>
       </c>
       <c r="H20">
-        <v>0.0609366459201686</v>
+        <v>0.220167</v>
       </c>
       <c r="I20">
-        <v>0.162949852359117</v>
+        <v>0.1230817652078658</v>
       </c>
       <c r="J20">
-        <v>0.162949852359117</v>
+        <v>0.1326837164481959</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.76015164397178</v>
+        <v>0.839947</v>
       </c>
       <c r="N20">
-        <v>0.76015164397178</v>
+        <v>1.679894</v>
       </c>
       <c r="O20">
-        <v>0.2204373294514705</v>
+        <v>0.2208542321802992</v>
       </c>
       <c r="P20">
-        <v>0.2204373294514705</v>
+        <v>0.1826921738434421</v>
       </c>
       <c r="Q20">
-        <v>0.04632109157434242</v>
+        <v>0.061642870383</v>
       </c>
       <c r="R20">
-        <v>0.04632109157434242</v>
+        <v>0.369857222298</v>
       </c>
       <c r="S20">
-        <v>0.03592023028855515</v>
+        <v>0.02718312875037907</v>
       </c>
       <c r="T20">
-        <v>0.03592023028855515</v>
+        <v>0.02424027659154778</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.0609366459201686</v>
+        <v>0.073389</v>
       </c>
       <c r="H21">
-        <v>0.0609366459201686</v>
+        <v>0.220167</v>
       </c>
       <c r="I21">
-        <v>0.162949852359117</v>
+        <v>0.1230817652078658</v>
       </c>
       <c r="J21">
-        <v>0.162949852359117</v>
+        <v>0.1326837164481959</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.438361379183894</v>
+        <v>0.5345263333333333</v>
       </c>
       <c r="N21">
-        <v>0.438361379183894</v>
+        <v>1.603579</v>
       </c>
       <c r="O21">
-        <v>0.1271209666232707</v>
+        <v>0.1405474427892284</v>
       </c>
       <c r="P21">
-        <v>0.1271209666232707</v>
+        <v>0.1743927494471038</v>
       </c>
       <c r="Q21">
-        <v>0.02671227214840571</v>
+        <v>0.039228353077</v>
       </c>
       <c r="R21">
-        <v>0.02671227214840571</v>
+        <v>0.353055177693</v>
       </c>
       <c r="S21">
-        <v>0.02071434274301021</v>
+        <v>0.01729882735394976</v>
       </c>
       <c r="T21">
-        <v>0.02071434274301021</v>
+        <v>0.02313907811826079</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.0609366459201686</v>
+        <v>0.073389</v>
       </c>
       <c r="H22">
-        <v>0.0609366459201686</v>
+        <v>0.220167</v>
       </c>
       <c r="I22">
-        <v>0.162949852359117</v>
+        <v>0.1230817652078658</v>
       </c>
       <c r="J22">
-        <v>0.162949852359117</v>
+        <v>0.1326837164481959</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.196378425333234</v>
+        <v>0.2109403333333333</v>
       </c>
       <c r="N22">
-        <v>0.196378425333234</v>
+        <v>0.632821</v>
       </c>
       <c r="O22">
-        <v>0.05694802607563677</v>
+        <v>0.05546429162100669</v>
       </c>
       <c r="P22">
-        <v>0.05694802607563677</v>
+        <v>0.06882067805693744</v>
       </c>
       <c r="Q22">
-        <v>0.01196664257089155</v>
+        <v>0.015480700123</v>
       </c>
       <c r="R22">
-        <v>0.01196664257089155</v>
+        <v>0.139326301107</v>
       </c>
       <c r="S22">
-        <v>0.009279672441168159</v>
+        <v>0.006826642918717344</v>
       </c>
       <c r="T22">
-        <v>0.009279672441168159</v>
+        <v>0.009131383333079264</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.0609366459201686</v>
+        <v>0.073389</v>
       </c>
       <c r="H23">
-        <v>0.0609366459201686</v>
+        <v>0.220167</v>
       </c>
       <c r="I23">
-        <v>0.162949852359117</v>
+        <v>0.1230817652078658</v>
       </c>
       <c r="J23">
-        <v>0.162949852359117</v>
+        <v>0.1326837164481959</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.260592588423979</v>
+        <v>0.351712</v>
       </c>
       <c r="N23">
-        <v>0.260592588423979</v>
+        <v>1.055136</v>
       </c>
       <c r="O23">
-        <v>0.07556957183816952</v>
+        <v>0.0924785536570729</v>
       </c>
       <c r="P23">
-        <v>0.07556957183816952</v>
+        <v>0.1147483648018709</v>
       </c>
       <c r="Q23">
-        <v>0.01587963829021223</v>
+        <v>0.025811791968</v>
       </c>
       <c r="R23">
-        <v>0.01587963829021223</v>
+        <v>0.232306127712</v>
       </c>
       <c r="S23">
-        <v>0.01231405057387141</v>
+        <v>0.01138242362798287</v>
       </c>
       <c r="T23">
-        <v>0.01231405057387141</v>
+        <v>0.01522523949826558</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.0609366459201686</v>
+        <v>0.073389</v>
       </c>
       <c r="H24">
-        <v>0.0609366459201686</v>
+        <v>0.220167</v>
       </c>
       <c r="I24">
-        <v>0.162949852359117</v>
+        <v>0.1230817652078658</v>
       </c>
       <c r="J24">
-        <v>0.162949852359117</v>
+        <v>0.1326837164481959</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.420680100465321</v>
+        <v>0.49169</v>
       </c>
       <c r="N24">
-        <v>0.420680100465321</v>
+        <v>1.47507</v>
       </c>
       <c r="O24">
-        <v>0.1219935504124152</v>
+        <v>0.1292841303329035</v>
       </c>
       <c r="P24">
-        <v>0.1219935504124152</v>
+        <v>0.1604171125507003</v>
       </c>
       <c r="Q24">
-        <v>0.02563483432771622</v>
+        <v>0.03608463741</v>
       </c>
       <c r="R24">
-        <v>0.02563483432771622</v>
+        <v>0.32476173669</v>
       </c>
       <c r="S24">
-        <v>0.01987883102846756</v>
+        <v>0.01591251897473756</v>
       </c>
       <c r="T24">
-        <v>0.01987883102846756</v>
+        <v>0.02128473867511544</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.073389</v>
+      </c>
+      <c r="H25">
+        <v>0.220167</v>
+      </c>
+      <c r="I25">
+        <v>0.1230817652078658</v>
+      </c>
+      <c r="J25">
+        <v>0.1326837164481959</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.374358</v>
+      </c>
+      <c r="N25">
+        <v>2.748716</v>
+      </c>
+      <c r="O25">
+        <v>0.3613713494194892</v>
+      </c>
+      <c r="P25">
+        <v>0.2989289212999456</v>
+      </c>
+      <c r="Q25">
+        <v>0.100862759262</v>
+      </c>
+      <c r="R25">
+        <v>0.605176555572</v>
+      </c>
+      <c r="S25">
+        <v>0.0444782235820992</v>
+      </c>
+      <c r="T25">
+        <v>0.03966300023192704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.191582</v>
+      </c>
+      <c r="I26">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J26">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.839947</v>
+      </c>
+      <c r="N26">
+        <v>1.679894</v>
+      </c>
+      <c r="O26">
+        <v>0.2208542321802992</v>
+      </c>
+      <c r="P26">
+        <v>0.1826921738434421</v>
+      </c>
+      <c r="Q26">
+        <v>0.05363957538466666</v>
+      </c>
+      <c r="R26">
+        <v>0.321837452308</v>
+      </c>
+      <c r="S26">
+        <v>0.02365385444801048</v>
+      </c>
+      <c r="T26">
+        <v>0.02109308238728741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.191582</v>
+      </c>
+      <c r="I27">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J27">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.5345263333333333</v>
+      </c>
+      <c r="N27">
+        <v>1.603579</v>
+      </c>
+      <c r="O27">
+        <v>0.1405474427892284</v>
+      </c>
+      <c r="P27">
+        <v>0.1743927494471038</v>
+      </c>
+      <c r="Q27">
+        <v>0.03413520799755555</v>
+      </c>
+      <c r="R27">
+        <v>0.307216871978</v>
+      </c>
+      <c r="S27">
+        <v>0.01505286415368517</v>
+      </c>
+      <c r="T27">
+        <v>0.02013485610492326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.191582</v>
+      </c>
+      <c r="I28">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J28">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2109403333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.632821</v>
+      </c>
+      <c r="O28">
+        <v>0.05546429162100669</v>
+      </c>
+      <c r="P28">
+        <v>0.06882067805693744</v>
+      </c>
+      <c r="Q28">
+        <v>0.01347079031355555</v>
+      </c>
+      <c r="R28">
+        <v>0.121237112822</v>
+      </c>
+      <c r="S28">
+        <v>0.005940317593707077</v>
+      </c>
+      <c r="T28">
+        <v>0.007945826039860613</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.191582</v>
+      </c>
+      <c r="I29">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J29">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.351712</v>
+      </c>
+      <c r="N29">
+        <v>1.055136</v>
+      </c>
+      <c r="O29">
+        <v>0.0924785536570729</v>
+      </c>
+      <c r="P29">
+        <v>0.1147483648018709</v>
+      </c>
+      <c r="Q29">
+        <v>0.02246056279466667</v>
+      </c>
+      <c r="R29">
+        <v>0.202145065152</v>
+      </c>
+      <c r="S29">
+        <v>0.009904606428284954</v>
+      </c>
+      <c r="T29">
+        <v>0.01324849697528111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.191582</v>
+      </c>
+      <c r="I30">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J30">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.49169</v>
+      </c>
+      <c r="N30">
+        <v>1.47507</v>
+      </c>
+      <c r="O30">
+        <v>0.1292841303329035</v>
+      </c>
+      <c r="P30">
+        <v>0.1604171125507003</v>
+      </c>
+      <c r="Q30">
+        <v>0.03139965119333333</v>
+      </c>
+      <c r="R30">
+        <v>0.28259686074</v>
+      </c>
+      <c r="S30">
+        <v>0.01384654471477637</v>
+      </c>
+      <c r="T30">
+        <v>0.0185212716022654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.06386066666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.191582</v>
+      </c>
+      <c r="I31">
+        <v>0.1071016580234701</v>
+      </c>
+      <c r="J31">
+        <v>0.115456956603752</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.374358</v>
+      </c>
+      <c r="N31">
+        <v>2.748716</v>
+      </c>
+      <c r="O31">
+        <v>0.3613713494194892</v>
+      </c>
+      <c r="P31">
+        <v>0.2989289212999456</v>
+      </c>
+      <c r="Q31">
+        <v>0.08776741811866666</v>
+      </c>
+      <c r="R31">
+        <v>0.526604508712</v>
+      </c>
+      <c r="S31">
+        <v>0.03870347068500606</v>
+      </c>
+      <c r="T31">
+        <v>0.03451342349413421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.0774725</v>
+      </c>
+      <c r="H32">
+        <v>0.154945</v>
+      </c>
+      <c r="I32">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J32">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.839947</v>
+      </c>
+      <c r="N32">
+        <v>1.679894</v>
+      </c>
+      <c r="O32">
+        <v>0.2208542321802992</v>
+      </c>
+      <c r="P32">
+        <v>0.1826921738434421</v>
+      </c>
+      <c r="Q32">
+        <v>0.0650727939575</v>
+      </c>
+      <c r="R32">
+        <v>0.26029117583</v>
+      </c>
+      <c r="S32">
+        <v>0.02869564842297541</v>
+      </c>
+      <c r="T32">
+        <v>0.0170593670099396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.0774725</v>
+      </c>
+      <c r="H33">
+        <v>0.154945</v>
+      </c>
+      <c r="I33">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J33">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.5345263333333333</v>
+      </c>
+      <c r="N33">
+        <v>1.603579</v>
+      </c>
+      <c r="O33">
+        <v>0.1405474427892284</v>
+      </c>
+      <c r="P33">
+        <v>0.1743927494471038</v>
+      </c>
+      <c r="Q33">
+        <v>0.04141109135916667</v>
+      </c>
+      <c r="R33">
+        <v>0.248466548155</v>
+      </c>
+      <c r="S33">
+        <v>0.01826136617447946</v>
+      </c>
+      <c r="T33">
+        <v>0.01628438621152997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.0774725</v>
+      </c>
+      <c r="H34">
+        <v>0.154945</v>
+      </c>
+      <c r="I34">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J34">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2109403333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.632821</v>
+      </c>
+      <c r="O34">
+        <v>0.05546429162100669</v>
+      </c>
+      <c r="P34">
+        <v>0.06882067805693744</v>
+      </c>
+      <c r="Q34">
+        <v>0.01634207497416667</v>
+      </c>
+      <c r="R34">
+        <v>0.098052449845</v>
+      </c>
+      <c r="S34">
+        <v>0.007206489985152127</v>
+      </c>
+      <c r="T34">
+        <v>0.006426313618952734</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.0609366459201686</v>
-      </c>
-      <c r="H25">
-        <v>0.0609366459201686</v>
-      </c>
-      <c r="I25">
-        <v>0.162949852359117</v>
-      </c>
-      <c r="J25">
-        <v>0.162949852359117</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.37221570764767</v>
-      </c>
-      <c r="N25">
-        <v>1.37221570764767</v>
-      </c>
-      <c r="O25">
-        <v>0.3979305555990374</v>
-      </c>
-      <c r="P25">
-        <v>0.3979305555990374</v>
-      </c>
-      <c r="Q25">
-        <v>0.08361822270301966</v>
-      </c>
-      <c r="R25">
-        <v>0.08361822270301966</v>
-      </c>
-      <c r="S25">
-        <v>0.06484272528404456</v>
-      </c>
-      <c r="T25">
-        <v>0.06484272528404456</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.0774725</v>
+      </c>
+      <c r="H35">
+        <v>0.154945</v>
+      </c>
+      <c r="I35">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J35">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.351712</v>
+      </c>
+      <c r="N35">
+        <v>1.055136</v>
+      </c>
+      <c r="O35">
+        <v>0.0924785536570729</v>
+      </c>
+      <c r="P35">
+        <v>0.1147483648018709</v>
+      </c>
+      <c r="Q35">
+        <v>0.02724800792</v>
+      </c>
+      <c r="R35">
+        <v>0.16348804752</v>
+      </c>
+      <c r="S35">
+        <v>0.01201576277805805</v>
+      </c>
+      <c r="T35">
+        <v>0.01071493336448587</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.0774725</v>
+      </c>
+      <c r="H36">
+        <v>0.154945</v>
+      </c>
+      <c r="I36">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J36">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.49169</v>
+      </c>
+      <c r="N36">
+        <v>1.47507</v>
+      </c>
+      <c r="O36">
+        <v>0.1292841303329035</v>
+      </c>
+      <c r="P36">
+        <v>0.1604171125507003</v>
+      </c>
+      <c r="Q36">
+        <v>0.038092453525</v>
+      </c>
+      <c r="R36">
+        <v>0.22855472115</v>
+      </c>
+      <c r="S36">
+        <v>0.01679792102727051</v>
+      </c>
+      <c r="T36">
+        <v>0.01497937399344935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.0774725</v>
+      </c>
+      <c r="H37">
+        <v>0.154945</v>
+      </c>
+      <c r="I37">
+        <v>0.129930262778705</v>
+      </c>
+      <c r="J37">
+        <v>0.09337765625668566</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.374358</v>
+      </c>
+      <c r="N37">
+        <v>2.748716</v>
+      </c>
+      <c r="O37">
+        <v>0.3613713494194892</v>
+      </c>
+      <c r="P37">
+        <v>0.2989289212999456</v>
+      </c>
+      <c r="Q37">
+        <v>0.106474950155</v>
+      </c>
+      <c r="R37">
+        <v>0.42589980062</v>
+      </c>
+      <c r="S37">
+        <v>0.04695307439076946</v>
+      </c>
+      <c r="T37">
+        <v>0.02791328205832816</v>
       </c>
     </row>
   </sheetData>
